--- a/data/SERVICESCAUSATIVEVERBS.xlsx
+++ b/data/SERVICESCAUSATIVEVERBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5F610D-D60F-4045-95B5-8DFCE8C2C758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9C2480-6367-431B-BAF1-4132B46B47ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B299458E-73A4-4743-B3AB-3BA967141ABC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>dry-clean a suit (v)</t>
   </si>
@@ -54,49 +54,303 @@
     <t>S + have + something + V3/ed</t>
   </si>
   <si>
-    <t>Cấu trúc Passive Causative (nhờ ai làm gì)</t>
-  </si>
-  <si>
     <t>S + get + something + V3/ed</t>
   </si>
   <si>
-    <t>Ex: Yesterday, I had my hair cut.</t>
-  </si>
-  <si>
-    <t>Tôi đã cắt tóc hôm qua (người khác cắt cho tôi)</t>
-  </si>
-  <si>
-    <t>Ex: She has her nails done every weekend.</t>
-  </si>
-  <si>
-    <t>Cô ấy làm móng mỗi cuối tuần (có người làm cho cô ấy)</t>
-  </si>
-  <si>
-    <t>Ex: I had my house cleaned.</t>
-  </si>
-  <si>
-    <t>Tôi đã nhờ dọn dẹp nhà</t>
-  </si>
-  <si>
-    <t>Ex: She had her phone repaired.</t>
-  </si>
-  <si>
-    <t>Cô ấy đã sửa điện thoại (đem đi sửa)</t>
-  </si>
-  <si>
-    <t>Ex: I had my shoes repaired last weekend.</t>
-  </si>
-  <si>
-    <t>Tôi đã sửa giày của tôi hồi cuối tuần rồi</t>
-  </si>
-  <si>
     <t>Từ vựng / Cụm từ (English)</t>
   </si>
   <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Nghĩa (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dry-clean your suit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> before the wedding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I need to find a place to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>repair my shoes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The dress is too short, I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lengthen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She asked the tailor to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>shorten her skirt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cấu trúc Passive Causative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>had my car washed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> yesterday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>got her roof fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> last week.</t>
+    </r>
+  </si>
+  <si>
+    <t>the mail carrier</t>
+  </si>
+  <si>
+    <t>nhân viên bưu cục</t>
+  </si>
+  <si>
+    <r>
+      <t>The mail carrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> delivers letters every morning.</t>
+    </r>
+  </si>
+  <si>
+    <t>deliver a package</t>
+  </si>
+  <si>
+    <t>giao gói hàng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>deliver this package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to my office?</t>
+    </r>
+  </si>
+  <si>
+    <t>print a sign</t>
+  </si>
+  <si>
+    <t>in một biển quảng cáo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We need to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>print a sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for the garage sale.</t>
+    </r>
+  </si>
+  <si>
+    <t>frame a picture</t>
+  </si>
+  <si>
+    <t>đóng khung tranh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>frame this picture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of my family.</t>
+    </r>
+  </si>
+  <si>
+    <t>copy a report</t>
+  </si>
+  <si>
+    <t>phô-tô báo cáo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Could you please </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>copy this report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for me?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -112,17 +366,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,17 +396,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,13 +414,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,125 +739,147 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
